--- a/image/coverage.xlsx
+++ b/image/coverage.xlsx
@@ -1081,47 +1081,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="139.6484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.53125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="140.14453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.75" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.58984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="50.94140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="57.1640625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="52.33203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="49.5625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="55.328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/coverage.xlsx
+++ b/image/coverage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="298">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -493,10 +493,6 @@
   </si>
   <si>
     <t>Coverage.subscriberId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>ID assigned to the subscriber</t>
@@ -1081,47 +1077,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.0625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="140.14453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.75" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.58984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="139.6484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.53125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="52.33203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="49.5625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="55.328125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="54.171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="50.94140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="57.1640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2920,17 +2916,17 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3014,7 +3010,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3037,17 +3033,17 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3096,7 +3092,7 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>51</v>
@@ -3111,7 +3107,7 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>42</v>
@@ -3131,7 +3127,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3154,19 +3150,19 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3215,7 +3211,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3239,10 +3235,10 @@
         <v>42</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>42</v>
@@ -3250,7 +3246,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3276,16 +3272,16 @@
         <v>130</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3310,55 +3306,55 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>42</v>
@@ -3369,7 +3365,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3392,17 +3388,17 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3451,7 +3447,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3466,19 +3462,19 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>42</v>
@@ -3486,7 +3482,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3509,19 +3505,19 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3570,7 +3566,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>51</v>
@@ -3591,21 +3587,21 @@
         <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3628,19 +3624,19 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3689,7 +3685,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -3701,7 +3697,7 @@
         <v>42</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>42</v>
@@ -3724,7 +3720,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3747,13 +3743,13 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3804,25 +3800,25 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3839,7 +3835,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3868,7 +3864,7 @@
         <v>97</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>99</v>
@@ -3921,7 +3917,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -3939,7 +3935,7 @@
         <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -3956,11 +3952,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3982,10 +3978,10 @@
         <v>96</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>99</v>
@@ -4040,7 +4036,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4075,7 +4071,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4101,14 +4097,14 @@
         <v>130</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4133,14 +4129,14 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4157,7 +4153,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>51</v>
@@ -4192,7 +4188,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4215,19 +4211,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4276,7 +4272,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>51</v>
@@ -4300,18 +4296,18 @@
         <v>42</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4334,17 +4330,17 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4393,7 +4389,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4417,18 +4413,18 @@
         <v>42</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4451,17 +4447,17 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4510,7 +4506,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4537,7 +4533,7 @@
         <v>42</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>42</v>
@@ -4545,7 +4541,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4568,17 +4564,17 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4627,7 +4623,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -4651,7 +4647,7 @@
         <v>42</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>42</v>
@@ -4662,11 +4658,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4685,19 +4681,19 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4746,7 +4742,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -4758,7 +4754,7 @@
         <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>42</v>
@@ -4781,7 +4777,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4804,13 +4800,13 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4861,25 +4857,25 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -4896,7 +4892,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4925,7 +4921,7 @@
         <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>99</v>
@@ -4978,7 +4974,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -4996,7 +4992,7 @@
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -5013,11 +5009,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5039,10 +5035,10 @@
         <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>99</v>
@@ -5097,7 +5093,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5132,7 +5128,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5158,16 +5154,16 @@
         <v>130</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5192,14 +5188,14 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5216,7 +5212,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5251,7 +5247,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5274,19 +5270,19 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5335,7 +5331,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>51</v>
@@ -5359,18 +5355,18 @@
         <v>42</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5393,17 +5389,17 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5452,7 +5448,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5464,7 +5460,7 @@
         <v>42</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>42</v>
@@ -5487,7 +5483,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5510,13 +5506,13 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5567,25 +5563,25 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5602,7 +5598,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5631,7 +5627,7 @@
         <v>97</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>99</v>
@@ -5684,7 +5680,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -5702,7 +5698,7 @@
         <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5719,11 +5715,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5745,10 +5741,10 @@
         <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>99</v>
@@ -5803,7 +5799,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -5838,7 +5834,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5864,14 +5860,14 @@
         <v>130</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5896,14 +5892,14 @@
         <v>42</v>
       </c>
       <c r="W41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="X41" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="X41" t="s" s="2">
+      <c r="Y41" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5920,7 +5916,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>51</v>
@@ -5955,7 +5951,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5978,17 +5974,17 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6037,7 +6033,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6072,7 +6068,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6095,19 +6091,19 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6156,7 +6152,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6191,7 +6187,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6214,17 +6210,17 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6273,7 +6269,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6291,7 +6287,7 @@
         <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6300,7 +6296,7 @@
         <v>145</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>147</v>
